--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Raecd2d81db2449c3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R129d08450143468c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -27,30 +27,30 @@
     <x:font/>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="0000FF"/>
+      <x:color rgb="FF0000FF"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="0000FF"/>
+      <x:color rgb="FF0000FF"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:i/>
       <x:sz val="12"/>
-      <x:color rgb="0000FF"/>
+      <x:color rgb="FF0000FF"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -63,7 +63,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="F2F2F2"/>
+        <x:fgColor rgb="FFF2F2F2"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -167,11 +167,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Ra2ff9ba4f67c4e63" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R3155ad4a06594903"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rea34263aa8974025" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rf52828f632bb4f2c"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rea425f3fb0314b23"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R446e37fa3c804f99" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R35aafd0e9b99493a"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rdb194a04e0734525" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R648998e959fb41d3"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R85198acb376248c8"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R129d08450143468c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rdb66ccac6263483c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -167,11 +167,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R446e37fa3c804f99" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R35aafd0e9b99493a"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rdb194a04e0734525" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R648998e959fb41d3"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R85198acb376248c8"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R4ae128d164ac4991" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rd891fb98ce274bb9"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R907b07a147e741e4" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R6168451247674a90"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R01c713128cc240b7"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rdb66ccac6263483c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rcdb62e4f25204081"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -167,11 +167,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R4ae128d164ac4991" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rd891fb98ce274bb9"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R907b07a147e741e4" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R6168451247674a90"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R01c713128cc240b7"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rbef508fba6174eb9" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R851ef944bc4145ab"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R698fe09a37474bd6" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Ref68c6e22bca48dc"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R8c15f588fa5743ea"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rcdb62e4f25204081"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R2be89f3953184a9f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -167,11 +167,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rbef508fba6174eb9" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R851ef944bc4145ab"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R698fe09a37474bd6" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Ref68c6e22bca48dc"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R8c15f588fa5743ea"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Read9926e6a744349" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Re2c3538466284c45"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rcc3a5601683f4ce1" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rcc28f09170b34e99"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Ra375b3ff6774496e"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R2be89f3953184a9f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Re8a1925c85774aee"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -167,11 +167,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Read9926e6a744349" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Re2c3538466284c45"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rcc3a5601683f4ce1" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rcc28f09170b34e99"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Ra375b3ff6774496e"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Ree62a17af49f4c97" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rdeb21767eb9848ac"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rbb35c3b1989a4c31" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rc69c5c64510d4492"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R3d5ac45add8e4108"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Re8a1925c85774aee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rc33d878d1d9642a9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -167,11 +167,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Ree62a17af49f4c97" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rdeb21767eb9848ac"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rbb35c3b1989a4c31" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rc69c5c64510d4492"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R3d5ac45add8e4108"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R6d183058c4e34660" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rb7d0e0977c3b4b5d"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rb3467aa49ba34784" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R95665bd8b6d4406e"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R5174b972896142e7"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rc33d878d1d9642a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R70ae57d42cb54ac0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -167,11 +167,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R6d183058c4e34660" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rb7d0e0977c3b4b5d"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rb3467aa49ba34784" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R95665bd8b6d4406e"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R5174b972896142e7"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Ra43431f3b3ab4c99" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rb3a0ca7d23684db6"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Redc1231fd9e84423" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R70155a9d93dd4e89"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R6fa7ad44e90d4331"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R70ae57d42cb54ac0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R10439c0bc6fd4957"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -167,11 +167,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Ra43431f3b3ab4c99" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rb3a0ca7d23684db6"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Redc1231fd9e84423" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R70155a9d93dd4e89"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R6fa7ad44e90d4331"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R5a24380750d8493d" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rb9687c706eca4fff"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R76969d6514424cdb" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rfe9654b050b74051"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R415b7b4513594e98"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R10439c0bc6fd4957"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R4be75508b7754c91"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -167,11 +167,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R5a24380750d8493d" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rb9687c706eca4fff"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R76969d6514424cdb" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rfe9654b050b74051"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R415b7b4513594e98"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R3e698318ea134078" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R032b0c54f0bf4c70"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rb6498204c86143dc" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R43b053a8bc8c4c89"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rbf85f92bd61f413b"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R4be75508b7754c91"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rf811cbff4212462a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -167,11 +167,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R3e698318ea134078" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R032b0c54f0bf4c70"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rb6498204c86143dc" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R43b053a8bc8c4c89"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rbf85f92bd61f413b"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rf3d5e430996340ae" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rb795393bf1614a57"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Re1a41a65f9d24b19" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R924e36ed7afd4a7d"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rb8d5587d1a1a4a64"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rf811cbff4212462a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rc68243801dfb4caa"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -167,11 +167,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rf3d5e430996340ae" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rb795393bf1614a57"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Re1a41a65f9d24b19" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R924e36ed7afd4a7d"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rb8d5587d1a1a4a64"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Red68b41ce70e4504" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R074faaa688d24f04"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rd260b43f0cfd4c48" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rf76f24e1c09e4e6c"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R3cf4acd1a42e48fa"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rc68243801dfb4caa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rbcc7e082a9464e1a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -167,11 +167,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Red68b41ce70e4504" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R074faaa688d24f04"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rd260b43f0cfd4c48" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rf76f24e1c09e4e6c"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R3cf4acd1a42e48fa"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R46d7d82d2a304db8" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rd79f46f44c5c4115"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R62673f86b9cf4c49" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rb0c9ddf511c743af"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R0513407b2a294814"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rbcc7e082a9464e1a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R89079d0332774cc5"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -167,11 +167,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R46d7d82d2a304db8" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rd79f46f44c5c4115"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R62673f86b9cf4c49" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rb0c9ddf511c743af"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R0513407b2a294814"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R242432b4ec84443a" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R305ad0bd7b284cce"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R583f4137fe474606" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R3776de656ff64624"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rbc0eee8b1bcc4231"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R89079d0332774cc5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rc209ac8660ce420d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -167,11 +167,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R242432b4ec84443a" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R305ad0bd7b284cce"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R583f4137fe474606" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R3776de656ff64624"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rbc0eee8b1bcc4231"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R94b12feac9614297" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R9df66c6c130043bc"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R7c0f0bd5510e4f35" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rc6391f4fa10843c7"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R87a2a77b031b4857"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rc209ac8660ce420d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R4644085ec20048bc"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -167,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R94b12feac9614297" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R9df66c6c130043bc"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R7c0f0bd5510e4f35" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rc6391f4fa10843c7"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R87a2a77b031b4857"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rf2f935bb629a4e5e" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R75385204e85b4588"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R3fc69364d25d48d7" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rf82814243f2d4552"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rf04852c464a04ea4"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R4644085ec20048bc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R5652a8fa41384231"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rf2f935bb629a4e5e" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R75385204e85b4588"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R3fc69364d25d48d7" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rf82814243f2d4552"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rf04852c464a04ea4"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rd081164ee06a40f5" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R730ce4fb90854150"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R6cb872ad69ab4719" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Racdfce907228494f"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R9a2f04f5ff434886"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R5652a8fa41384231"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rada705c37e0d46fa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rd081164ee06a40f5" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R730ce4fb90854150"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R6cb872ad69ab4719" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Racdfce907228494f"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R9a2f04f5ff434886"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R7cda7abe8fe3486b" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R489211f21cac439a"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R404b5c2aafeb45f2" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R6cdecb2855c242aa"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R0abd72f11c6c445a"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rada705c37e0d46fa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R6b054e44d2494490"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R7cda7abe8fe3486b" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R489211f21cac439a"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R404b5c2aafeb45f2" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R6cdecb2855c242aa"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R0abd72f11c6c445a"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R0f488177715940ba" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R210a5aae360b4505"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R15836a82c6cc4e70" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R25c43db31b504959"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R2f6a16f23e854d85"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R6b054e44d2494490"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R8076b76900504e01"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R0f488177715940ba" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R210a5aae360b4505"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R15836a82c6cc4e70" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R25c43db31b504959"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R2f6a16f23e854d85"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R58b1504dc2234194" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R2cddc7cb019b45cd"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R550cab61c0f2460f" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R53128a229ac340b1"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R4c5df62db93f46a9"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R8076b76900504e01"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R1d9b5aa760a54fa8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R58b1504dc2234194" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R2cddc7cb019b45cd"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R550cab61c0f2460f" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R53128a229ac340b1"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R4c5df62db93f46a9"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R60f0737c58c1475d" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R24b89525e8264a7b"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R45175826134d4377" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R3308e70e33d44926"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R3306d813495349a4"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R1d9b5aa760a54fa8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Ra211d5571b5a4b78"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R60f0737c58c1475d" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R24b89525e8264a7b"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R45175826134d4377" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R3308e70e33d44926"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R3306d813495349a4"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R68870d913a8d4c0c" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rf974fd01d3674c78"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rd78f978a50a24d72" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R7bad9a72d8794eb1"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Raab18b6e28d54755"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Ra211d5571b5a4b78"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R52053d68b9194cca"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R68870d913a8d4c0c" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rf974fd01d3674c78"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rd78f978a50a24d72" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R7bad9a72d8794eb1"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Raab18b6e28d54755"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Re5dfa331501f48d6" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R1be21eb680c4451d"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rd3aa805f6c794d03" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rd26ed93366a74d35"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R62a540d92cf44694"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R52053d68b9194cca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R655151354b424b6d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Re5dfa331501f48d6" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R1be21eb680c4451d"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rd3aa805f6c794d03" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rd26ed93366a74d35"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R62a540d92cf44694"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R416958be6ee141d5" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R346a6c47b8fc4a56"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rdce9a61633ba4433" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Ra4087fa6cf8c4df2"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R37432e0eaf204952"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R655151354b424b6d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Re138e902bc544bba"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R416958be6ee141d5" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R346a6c47b8fc4a56"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rdce9a61633ba4433" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Ra4087fa6cf8c4df2"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R37432e0eaf204952"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Ra59b32b466544b96" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R2bb1fc32e7e34973"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rbd21c1914a2d4b71" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R9763e5de702c466a"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R1de4b896c6214e6c"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Re138e902bc544bba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R36876ed678f04af4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Ra59b32b466544b96" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R2bb1fc32e7e34973"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rbd21c1914a2d4b71" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R9763e5de702c466a"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R1de4b896c6214e6c"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rc4d5b409d2cc487d" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R96af2c4f5dbf45d9"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rdc011075247c4a6a" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rce44fb11fd424e60"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R36c0cf75b0724a4d"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R36876ed678f04af4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rf2058a136ba64926"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rc4d5b409d2cc487d" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R96af2c4f5dbf45d9"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rdc011075247c4a6a" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rce44fb11fd424e60"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R36c0cf75b0724a4d"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R137060b4d32e4176" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R3244302524be416e"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R175fa168cdaf48af" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rf0bbe364941043ac"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rc676a47213e049a6"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rf2058a136ba64926"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R102909ed5f3743cf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R137060b4d32e4176" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R3244302524be416e"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R175fa168cdaf48af" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rf0bbe364941043ac"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rc676a47213e049a6"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R09f54d46505f41fa" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R0a194a2315be48ec"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R24baa3f99cd842ba" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rbd0e4948ec9b4628"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R692bc8ab86804426"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R102909ed5f3743cf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R73242b7e5cfd462a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R09f54d46505f41fa" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R0a194a2315be48ec"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R24baa3f99cd842ba" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rbd0e4948ec9b4628"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R692bc8ab86804426"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R77d9a68192104877" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Re8f8764846144767"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R39e3494cf4494cf9" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R96d5fb9eef594f0b"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rd274ed3168614f38"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R73242b7e5cfd462a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R3ea9551e61094250"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R77d9a68192104877" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Re8f8764846144767"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R39e3494cf4494cf9" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R96d5fb9eef594f0b"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rd274ed3168614f38"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rb88d2165add94108" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R8b2c71a6dcef4234"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R8568691f32534872" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R4e6a4a8a93ff4c90"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R930a6efc5d694736"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R3ea9551e61094250"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rb8c2d68927fa4fd1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rb88d2165add94108" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R8b2c71a6dcef4234"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R8568691f32534872" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R4e6a4a8a93ff4c90"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R930a6efc5d694736"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R6d9d9dd519e94971" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rbeeaa05be62947cb"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R7c45e017e5ea4ea0" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R90c8f91d0af54744"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R55756d4555f14356"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rb8c2d68927fa4fd1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rdf5d3cf017d94990"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R6d9d9dd519e94971" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rbeeaa05be62947cb"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R7c45e017e5ea4ea0" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R90c8f91d0af54744"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R55756d4555f14356"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Re9d4bca3cbbd422c" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rf9bd1fd3454f475f"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R16bcb3246fdf4200" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R8bb3075ac7964568"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rcdbfc007abe946e1"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rdf5d3cf017d94990"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R43f01faca8494ef4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Re9d4bca3cbbd422c" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rf9bd1fd3454f475f"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R16bcb3246fdf4200" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R8bb3075ac7964568"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rcdbfc007abe946e1"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R4256c27908734cc9" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R471e9f4664ce4514"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R2a57c57add6f4739" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rd78103c289cc49a7"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R40090ea07d674b3e"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R43f01faca8494ef4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R3bb95eb380254968"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R4256c27908734cc9" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R471e9f4664ce4514"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R2a57c57add6f4739" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rd78103c289cc49a7"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R40090ea07d674b3e"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R1829d28988fe4a36" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R9a1d05c8afb44438"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R4bd9b82352134f0a" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R20029abf1d5244da"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R8e7ef780d1dd4706"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R3bb95eb380254968"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rc07bf2ba13984351"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R1829d28988fe4a36" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R9a1d05c8afb44438"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R4bd9b82352134f0a" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R20029abf1d5244da"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R8e7ef780d1dd4706"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R79287d08c1c94c10" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R16904e0459d64ebe"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R20e9e3a520eb40a9" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R4dc8843c7cdd49ab"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R1da859a557014373"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rc07bf2ba13984351"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rbf67a04007634ac0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R79287d08c1c94c10" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R16904e0459d64ebe"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R20e9e3a520eb40a9" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R4dc8843c7cdd49ab"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R1da859a557014373"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R0540e7c8e1c74254" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rec98f1bf82c74af4"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Re87c0873301540fa" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R34e6d3c7173c4cc5"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rb53e99527f444b42"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rbf67a04007634ac0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rad4301abf5a54cc9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R0540e7c8e1c74254" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rec98f1bf82c74af4"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Re87c0873301540fa" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R34e6d3c7173c4cc5"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rb53e99527f444b42"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rc990001a06354d99" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R4253fb02790a4cfa"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R1c2b99d1e5594d6d" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R567e5dfa263f4ef8"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rd9ae729afce24ff1"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rad4301abf5a54cc9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R6d929408c1b3420d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rc990001a06354d99" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R4253fb02790a4cfa"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R1c2b99d1e5594d6d" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R567e5dfa263f4ef8"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rd9ae729afce24ff1"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rdfd68d4d12be4a67" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rd1c4e22fcce840c6"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Ra24e0a1e14db4f82" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R1b0062da60824324"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R44077cf7891a4e63"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R6d929408c1b3420d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R415b351ba82b45ee"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rdfd68d4d12be4a67" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rd1c4e22fcce840c6"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Ra24e0a1e14db4f82" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R1b0062da60824324"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R44077cf7891a4e63"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R6ffebcaa34914ff0" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R0766fc528e3a4a19"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Ra09a0e9ab5734f30" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R115dfa9b7357493c"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R91ec022db18b43fc"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R415b351ba82b45ee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R373aafc2076f462e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R6ffebcaa34914ff0" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R0766fc528e3a4a19"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Ra09a0e9ab5734f30" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R115dfa9b7357493c"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R91ec022db18b43fc"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R015fc45189c244ac" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rccac1f90fe654649"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Re675b113955346e4" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rf5bfa0e9e1af429a"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rd59deccdfebc41b3"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R373aafc2076f462e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rcceefb1e3ea44935"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R015fc45189c244ac" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rccac1f90fe654649"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Re675b113955346e4" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rf5bfa0e9e1af429a"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rd59deccdfebc41b3"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R6df9b627796144b5" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rd2be9153702c4fb7"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R37c3bf22012047a4" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R04747df4ab1e4d4e"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rd688189400814273"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rcceefb1e3ea44935"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R38c47887172f4d68"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R6df9b627796144b5" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rd2be9153702c4fb7"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R37c3bf22012047a4" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R04747df4ab1e4d4e"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rd688189400814273"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rcd22ff9fbba149ce" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R60052aa763ce4580"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R32d67cadbf4b47e6" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R6cc5f2991bc6489c"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R72de9e9376074e96"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/34_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R38c47887172f4d68"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rfa774c4593b34610"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rcd22ff9fbba149ce" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R60052aa763ce4580"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R32d67cadbf4b47e6" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R6cc5f2991bc6489c"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R72de9e9376074e96"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R86db7bc7d1b849ae" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rab3005d59f5a4f62"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R56c6d45bbe3a4e2e" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R7537da90c65443df"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R91a59981589d4110"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>